--- a/documentation/Team_backlog.xlsx
+++ b/documentation/Team_backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atef\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atef\Desktop\Obstacle-avoidance-car-V1.0\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D2D9C2-A158-4C3E-88B2-46B83BD08663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34513CD-AA9F-409E-A547-0A2C9F9F7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F09DEB-9616-4088-930A-FEC91A9E64DA}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>avoidance</t>
-  </si>
-  <si>
-    <t>senseing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>motor</t>
   </si>
@@ -88,6 +73,57 @@
   </si>
   <si>
     <t>Actual Time</t>
+  </si>
+  <si>
+    <t>16/5    10pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>15/5   10pm</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>keypad</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>atef</t>
+  </si>
+  <si>
+    <t>khaled</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>amr</t>
+  </si>
+  <si>
+    <t>main flow</t>
+  </si>
+  <si>
+    <t>15/5</t>
+  </si>
+  <si>
+    <t>15/5    10pm</t>
   </si>
 </sst>
 </file>
@@ -110,12 +146,30 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,12 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +525,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,157 +539,211 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,9 +755,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -660,9 +773,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -676,9 +791,11 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>

--- a/documentation/Team_backlog.xlsx
+++ b/documentation/Team_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atef\Desktop\Obstacle-avoidance-car-V1.0\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\embedded\Sprints_Tasks\embedded SW design\Obstacle Avoidance\Code\Obstacle-avoidance-car-V1.0\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34513CD-AA9F-409E-A547-0A2C9F9F7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C8D93-CE20-4CA6-A7BD-5DB5611B4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F09DEB-9616-4088-930A-FEC91A9E64DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87F09DEB-9616-4088-930A-FEC91A9E64DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>motor</t>
   </si>
@@ -525,19 +525,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -554,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -567,7 +567,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -580,7 +580,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -593,20 +593,22 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -615,7 +617,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +630,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -643,7 +645,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -656,7 +658,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -669,7 +671,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -682,14 +684,14 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -702,7 +704,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -713,7 +715,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -724,7 +726,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -735,7 +737,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -746,14 +748,14 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -764,14 +766,14 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -782,14 +784,14 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -800,14 +802,14 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>

--- a/documentation/Team_backlog.xlsx
+++ b/documentation/Team_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\embedded\Sprints_Tasks\embedded SW design\Obstacle Avoidance\Code\Obstacle-avoidance-car-V1.0\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atef\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C8D93-CE20-4CA6-A7BD-5DB5611B4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA922327-3EAD-4392-A9A2-08E54F45E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87F09DEB-9616-4088-930A-FEC91A9E64DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F09DEB-9616-4088-930A-FEC91A9E64DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>motor</t>
   </si>
@@ -45,21 +45,9 @@
     <t>pwm</t>
   </si>
   <si>
-    <t>timer</t>
-  </si>
-  <si>
-    <t>interrupt</t>
-  </si>
-  <si>
     <t>documintation</t>
   </si>
   <si>
-    <t xml:space="preserve">simulation </t>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
     <t>Task Name</t>
   </si>
   <si>
@@ -75,36 +63,15 @@
     <t>Actual Time</t>
   </si>
   <si>
-    <t>16/5    10pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>15/5   10pm</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
     <t>keypad</t>
   </si>
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
     <t>atef</t>
   </si>
   <si>
-    <t>khaled</t>
-  </si>
-  <si>
     <t>buttons</t>
   </si>
   <si>
@@ -117,13 +84,34 @@
     <t>amr</t>
   </si>
   <si>
-    <t>main flow</t>
-  </si>
-  <si>
     <t>15/5</t>
   </si>
   <si>
-    <t>15/5    10pm</t>
+    <t>timers</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application </t>
+  </si>
+  <si>
+    <t>anas/khaled</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <t>19/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/5    </t>
+  </si>
+  <si>
+    <t>16/5</t>
   </si>
 </sst>
 </file>
@@ -146,7 +134,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,18 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,15 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,299 +500,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25B198F-E613-463C-A43A-A9BDEE0F428C}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
